--- a/Data/Raw/Averages.xlsx
+++ b/Data/Raw/Averages.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aloaskari/Desktop/Ironhack/Bootcamp/Projects/Mid Bootcamp Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aloaskari/Desktop/Ironhack/Bootcamp/Projects/MidBootcampProject/Data/Raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4A157A8-541D-E840-9075-27CFF0BA5D86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F5106A-67C1-7041-8D16-1FFEEE2DA481}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{6310E3AB-EA0A-C643-8C36-914CDDC2026E}"/>
   </bookViews>
   <sheets>
     <sheet name="Averages " sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="52">
-  <si>
-    <t>7th</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>La Liga</t>
   </si>
@@ -45,60 +42,36 @@
     <t>2021-2022</t>
   </si>
   <si>
-    <t xml:space="preserve">7th </t>
-  </si>
-  <si>
     <t>2020-2021</t>
   </si>
   <si>
-    <t xml:space="preserve">5th </t>
-  </si>
-  <si>
     <t>2019-2020</t>
   </si>
   <si>
-    <t xml:space="preserve">14th </t>
-  </si>
-  <si>
     <t>2018-2019</t>
   </si>
   <si>
     <t>2017-2018</t>
   </si>
   <si>
-    <t>5th</t>
-  </si>
-  <si>
     <t>2016-2017</t>
   </si>
   <si>
-    <t>4th</t>
-  </si>
-  <si>
     <t>2015-2016</t>
   </si>
   <si>
-    <t xml:space="preserve">6th </t>
-  </si>
-  <si>
     <t>2014-2015</t>
   </si>
   <si>
     <t>2013-2014</t>
   </si>
   <si>
-    <t xml:space="preserve">2nd </t>
-  </si>
-  <si>
     <t>Liga Adelante (Segunda)</t>
   </si>
   <si>
     <t>2012-2013</t>
   </si>
   <si>
-    <t xml:space="preserve">18th </t>
-  </si>
-  <si>
     <t>2011-2012</t>
   </si>
   <si>
@@ -120,21 +93,12 @@
     <t>2005-2006</t>
   </si>
   <si>
-    <t>3rd</t>
-  </si>
-  <si>
     <t>2004-2005</t>
   </si>
   <si>
-    <t>8th</t>
-  </si>
-  <si>
     <t>2003-2004</t>
   </si>
   <si>
-    <t>15th</t>
-  </si>
-  <si>
     <t>2002-2003</t>
   </si>
   <si>
@@ -154,9 +118,6 @@
   </si>
   <si>
     <t>1997-1998</t>
-  </si>
-  <si>
-    <t>10th</t>
   </si>
   <si>
     <t>1996-1997</t>
@@ -627,7 +588,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -645,31 +606,31 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="J1" s="8"/>
       <c r="K1" s="3"/>
@@ -677,7 +638,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B2" s="1">
         <v>25.6</v>
@@ -698,15 +659,15 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="I2" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1">
         <v>23.5</v>
@@ -727,15 +688,15 @@
         <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>40</v>
+        <v>24</v>
+      </c>
+      <c r="I3" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="3" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1">
         <v>26.04</v>
@@ -756,15 +717,15 @@
         <v>4</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="3" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1">
         <v>25.93</v>
@@ -785,15 +746,15 @@
         <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="3" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1">
         <v>25.06</v>
@@ -814,15 +775,15 @@
         <v>14</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="I6" s="4">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="3" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1">
         <v>26.64</v>
@@ -843,15 +804,15 @@
         <v>10</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1">
         <v>27.61</v>
@@ -872,15 +833,15 @@
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>24.38</v>
@@ -901,15 +862,15 @@
         <v>13</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>32</v>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B10" s="1">
         <v>23.3</v>
@@ -930,15 +891,15 @@
         <v>13</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="3" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B11" s="1">
         <v>23.84</v>
@@ -959,15 +920,15 @@
         <v>7</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>28</v>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B12" s="2">
         <v>24.79</v>
@@ -988,15 +949,15 @@
         <v>7</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B13" s="2">
         <v>26.09</v>
@@ -1017,15 +978,15 @@
         <v>12</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2">
         <v>26.21</v>
@@ -1046,15 +1007,15 @@
         <v>22</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>17</v>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B15" s="2">
         <v>25.97</v>
@@ -1075,15 +1036,15 @@
         <v>16</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2">
         <v>25.94</v>
@@ -1104,15 +1065,15 @@
         <v>15</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2">
         <v>24.79</v>
@@ -1133,15 +1094,15 @@
         <v>14</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="3" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2">
         <v>25.12</v>
@@ -1162,15 +1123,15 @@
         <v>11</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>20</v>
+        <v>0</v>
+      </c>
+      <c r="I18" s="5">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1">
         <v>25.46</v>
@@ -1191,15 +1152,15 @@
         <v>25</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="I19" s="4">
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1">
         <v>24.1</v>
@@ -1220,15 +1181,15 @@
         <v>14</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B21" s="1">
         <v>23.57</v>
@@ -1249,15 +1210,15 @@
         <v>11</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B22" s="1">
         <v>24.9</v>
@@ -1278,15 +1239,15 @@
         <v>15</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>12</v>
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B23" s="1">
         <v>25.17</v>
@@ -1307,15 +1268,15 @@
         <v>16</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B24" s="1">
         <v>24.65</v>
@@ -1336,15 +1297,15 @@
         <v>11</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B25" s="1">
         <v>27</v>
@@ -1365,15 +1326,15 @@
         <v>18</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B26" s="1">
         <v>25.91</v>
@@ -1394,15 +1355,15 @@
         <v>20</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B27" s="1">
         <v>25.33</v>
@@ -1423,15 +1384,15 @@
         <v>18</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I27" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="2">
         <v>25.41</v>
@@ -1452,10 +1413,10 @@
         <v>16</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="I28" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
